--- a/data_year/zb/批发和零售业/限额以上零售业企业资产及负债/按国民经济行业分限额以上零售业企业流动资产.xlsx
+++ b/data_year/zb/批发和零售业/限额以上零售业企业资产及负债/按国民经济行业分限额以上零售业企业流动资产.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1393 +543,841 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>372.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>36.1</v>
+      </c>
       <c r="D2" t="n">
-        <v>85.6104</v>
+        <v>884.9</v>
       </c>
       <c r="E2" t="n">
-        <v>88.9465</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>336.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1916.9</v>
+      </c>
       <c r="G2" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>635.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>401.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1496</v>
+      </c>
+      <c r="J2" t="n">
+        <v>483.9</v>
+      </c>
+      <c r="K2" t="n">
+        <v>880.2</v>
+      </c>
       <c r="L2" t="n">
-        <v>70.07380000000001</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>5973.7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4939.4</v>
+      </c>
       <c r="N2" t="n">
-        <v>986</v>
+        <v>2934.8</v>
       </c>
       <c r="O2" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+        <v>693.8</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5269.9</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>832</v>
+      </c>
       <c r="R2" t="n">
-        <v>12.1654</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+        <v>258.7</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2154.6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>122</v>
+      </c>
+      <c r="U2" t="n">
+        <v>111.6</v>
+      </c>
       <c r="V2" t="n">
-        <v>273.9121</v>
+        <v>334.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>506.2895</v>
+      </c>
+      <c r="C3" t="n">
+        <v>53.7401</v>
+      </c>
       <c r="D3" t="n">
-        <v>114.1891</v>
+        <v>1139.3466</v>
       </c>
       <c r="E3" t="n">
-        <v>98.76139999999999</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>373.8644</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2181.1116</v>
+      </c>
       <c r="G3" t="n">
-        <v>9.8009</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>824.722</v>
+      </c>
+      <c r="H3" t="n">
+        <v>540.8394</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1643.0019</v>
+      </c>
+      <c r="J3" t="n">
+        <v>715.506</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1058.9112</v>
+      </c>
       <c r="L3" t="n">
-        <v>102.2427</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>7744.0172</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6485.0753</v>
+      </c>
       <c r="N3" t="n">
-        <v>1070.6685</v>
+        <v>3740.1487</v>
       </c>
       <c r="O3" t="n">
-        <v>51.5058</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>1016.6076</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6308.6511</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1056.768</v>
+      </c>
       <c r="R3" t="n">
-        <v>30.4974</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>315.4075</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2375.2996</v>
+      </c>
+      <c r="T3" t="n">
+        <v>174.4977</v>
+      </c>
+      <c r="U3" t="n">
+        <v>145.8488</v>
+      </c>
       <c r="V3" t="n">
-        <v>207.1399</v>
+        <v>541.149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>552.9709800000001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>75.89894</v>
+      </c>
       <c r="D4" t="n">
-        <v>145.0341</v>
+        <v>1550.17379</v>
       </c>
       <c r="E4" t="n">
-        <v>112.8187</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>476.27315</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2915.02752</v>
+      </c>
       <c r="G4" t="n">
-        <v>9.581300000000001</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1105.88955</v>
+      </c>
+      <c r="H4" t="n">
+        <v>907.433</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1906.17994</v>
+      </c>
+      <c r="J4" t="n">
+        <v>877.05978</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1423.54359</v>
+      </c>
       <c r="L4" t="n">
-        <v>224.1756</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>9485.010329999999</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7820.97408</v>
+      </c>
       <c r="N4" t="n">
-        <v>1176.3303</v>
+        <v>4364.10666</v>
       </c>
       <c r="O4" t="n">
-        <v>56.8856</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+        <v>1305.85923</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7342.2095</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1422.67301</v>
+      </c>
       <c r="R4" t="n">
-        <v>46.7308</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+        <v>375.98012</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2800.23232</v>
+      </c>
+      <c r="T4" t="n">
+        <v>215.72149</v>
+      </c>
+      <c r="U4" t="n">
+        <v>266.6</v>
+      </c>
       <c r="V4" t="n">
-        <v>204.6376</v>
+        <v>816.49656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.33911</v>
+        <v>774.47264</v>
       </c>
       <c r="C5" t="n">
-        <v>3.57901</v>
+        <v>82.07250999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>161.8386</v>
+        <v>1973.10271</v>
       </c>
       <c r="E5" t="n">
-        <v>119.57749</v>
+        <v>562.86582</v>
       </c>
       <c r="F5" t="n">
-        <v>358.56451</v>
+        <v>2638.13948</v>
       </c>
       <c r="G5" t="n">
-        <v>160.82866</v>
+        <v>1323.99127</v>
       </c>
       <c r="H5" t="n">
-        <v>39.28434</v>
+        <v>1042.28825</v>
       </c>
       <c r="I5" t="n">
-        <v>281.84857</v>
+        <v>1433.28269</v>
       </c>
       <c r="J5" t="n">
-        <v>41.68671</v>
+        <v>1072.80645</v>
       </c>
       <c r="K5" t="n">
-        <v>54.49119</v>
+        <v>1497.02652</v>
       </c>
       <c r="L5" t="n">
-        <v>519.16026</v>
+        <v>11113.03136</v>
       </c>
       <c r="M5" t="n">
-        <v>421.08083</v>
+        <v>9365.739149999999</v>
       </c>
       <c r="N5" t="n">
-        <v>971.16359</v>
+        <v>4779.74448</v>
       </c>
       <c r="O5" t="n">
-        <v>87.30714999999999</v>
+        <v>1649.61435</v>
       </c>
       <c r="P5" t="n">
-        <v>1541.25605</v>
+        <v>8148.67996</v>
       </c>
       <c r="Q5" t="n">
-        <v>152.13846</v>
+        <v>1800.41665</v>
       </c>
       <c r="R5" t="n">
-        <v>40.35285</v>
+        <v>449.45219</v>
       </c>
       <c r="S5" t="n">
-        <v>512.33372</v>
+        <v>3155.43855</v>
       </c>
       <c r="T5" t="n">
-        <v>31.60888</v>
+        <v>240.41574</v>
       </c>
       <c r="U5" t="n">
-        <v>1.7129</v>
+        <v>390.99036</v>
       </c>
       <c r="V5" t="n">
-        <v>123.91511</v>
+        <v>860.47463</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126.34983</v>
+        <v>858.9044</v>
       </c>
       <c r="C6" t="n">
-        <v>7.73898</v>
+        <v>64.45165</v>
       </c>
       <c r="D6" t="n">
-        <v>301.32974</v>
+        <v>2461.83755</v>
       </c>
       <c r="E6" t="n">
-        <v>159.06339</v>
+        <v>644.27125</v>
       </c>
       <c r="F6" t="n">
-        <v>561.66059</v>
+        <v>2874.82674</v>
       </c>
       <c r="G6" t="n">
-        <v>235.92582</v>
+        <v>1552.01794</v>
       </c>
       <c r="H6" t="n">
-        <v>88.86542</v>
+        <v>1413.04469</v>
       </c>
       <c r="I6" t="n">
-        <v>400.37141</v>
+        <v>1525.04079</v>
       </c>
       <c r="J6" t="n">
-        <v>91.15000000000001</v>
+        <v>1144.54413</v>
       </c>
       <c r="K6" t="n">
-        <v>114.56079</v>
+        <v>1795.44405</v>
       </c>
       <c r="L6" t="n">
-        <v>1230.82536</v>
+        <v>13077.72911</v>
       </c>
       <c r="M6" t="n">
-        <v>1057.90819</v>
+        <v>10998.4761</v>
       </c>
       <c r="N6" t="n">
-        <v>966.40712</v>
+        <v>5197.79466</v>
       </c>
       <c r="O6" t="n">
-        <v>153.19083</v>
+        <v>1831.37665</v>
       </c>
       <c r="P6" t="n">
-        <v>1665.13558</v>
+        <v>8645.98343</v>
       </c>
       <c r="Q6" t="n">
-        <v>249.14299</v>
+        <v>2234.68725</v>
       </c>
       <c r="R6" t="n">
-        <v>80.54824000000001</v>
+        <v>487.56851</v>
       </c>
       <c r="S6" t="n">
-        <v>637.64726</v>
+        <v>3232.91179</v>
       </c>
       <c r="T6" t="n">
-        <v>62.34875</v>
+        <v>272.37454</v>
       </c>
       <c r="U6" t="n">
-        <v>7.31025</v>
+        <v>666.35562</v>
       </c>
       <c r="V6" t="n">
-        <v>132.38196</v>
+        <v>1320.38054</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.42171</v>
+        <v>933.38</v>
       </c>
       <c r="C7" t="n">
-        <v>7.40763</v>
+        <v>72.205</v>
       </c>
       <c r="D7" t="n">
-        <v>311.97399</v>
+        <v>2691.7078</v>
       </c>
       <c r="E7" t="n">
-        <v>169.85011</v>
+        <v>713.535</v>
       </c>
       <c r="F7" t="n">
-        <v>656.00282</v>
+        <v>3039.2582</v>
       </c>
       <c r="G7" t="n">
-        <v>260.03203</v>
+        <v>1604.3292</v>
       </c>
       <c r="H7" t="n">
-        <v>92.44426</v>
+        <v>1240.3126</v>
       </c>
       <c r="I7" t="n">
-        <v>466.30574</v>
+        <v>1569.9906</v>
       </c>
       <c r="J7" t="n">
-        <v>89.54539</v>
+        <v>1271.6619</v>
       </c>
       <c r="K7" t="n">
-        <v>250.64416</v>
+        <v>2958.8699</v>
       </c>
       <c r="L7" t="n">
-        <v>1469.41572</v>
+        <v>14503.1351</v>
       </c>
       <c r="M7" t="n">
-        <v>1160.42169</v>
+        <v>11115.2662</v>
       </c>
       <c r="N7" t="n">
-        <v>1077.65215</v>
+        <v>5274.3478</v>
       </c>
       <c r="O7" t="n">
-        <v>151.34685</v>
+        <v>2016.708</v>
       </c>
       <c r="P7" t="n">
-        <v>1945.62831</v>
+        <v>8640.5641</v>
       </c>
       <c r="Q7" t="n">
-        <v>281.03333</v>
+        <v>2541.6764</v>
       </c>
       <c r="R7" t="n">
-        <v>104.5089</v>
+        <v>451.2263</v>
       </c>
       <c r="S7" t="n">
-        <v>792.64129</v>
+        <v>3133.1759</v>
       </c>
       <c r="T7" t="n">
-        <v>62.23599</v>
+        <v>405.0856</v>
       </c>
       <c r="U7" t="n">
-        <v>3.81659</v>
+        <v>630.9923</v>
       </c>
       <c r="V7" t="n">
-        <v>114.45212</v>
+        <v>1207.3678</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.1106</v>
+        <v>1070.7965</v>
       </c>
       <c r="C8" t="n">
-        <v>14.0623</v>
+        <v>84.36839999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>321.7481</v>
+        <v>3100.0669</v>
       </c>
       <c r="E8" t="n">
-        <v>187.416</v>
+        <v>801.8154</v>
       </c>
       <c r="F8" t="n">
-        <v>701.4147</v>
+        <v>4273.411</v>
       </c>
       <c r="G8" t="n">
-        <v>296.6221</v>
+        <v>1735.6038</v>
       </c>
       <c r="H8" t="n">
-        <v>107.967</v>
+        <v>1996.0307</v>
       </c>
       <c r="I8" t="n">
-        <v>493.7638</v>
+        <v>2693.5944</v>
       </c>
       <c r="J8" t="n">
-        <v>119.8601</v>
+        <v>1536.4509</v>
       </c>
       <c r="K8" t="n">
-        <v>326.6082</v>
+        <v>3514.1331</v>
       </c>
       <c r="L8" t="n">
-        <v>1898.5173</v>
+        <v>15960.9157</v>
       </c>
       <c r="M8" t="n">
-        <v>1510.3211</v>
+        <v>12047.3492</v>
       </c>
       <c r="N8" t="n">
-        <v>1338.9442</v>
+        <v>5408.4526</v>
       </c>
       <c r="O8" t="n">
-        <v>187.6319</v>
+        <v>2334.3731</v>
       </c>
       <c r="P8" t="n">
-        <v>2407.8238</v>
+        <v>8802.8212</v>
       </c>
       <c r="Q8" t="n">
-        <v>282.0131</v>
+        <v>2921.8351</v>
       </c>
       <c r="R8" t="n">
-        <v>114.5883</v>
+        <v>494.232</v>
       </c>
       <c r="S8" t="n">
-        <v>937.2432</v>
+        <v>3166.9728</v>
       </c>
       <c r="T8" t="n">
-        <v>68.8689</v>
+        <v>352.8703</v>
       </c>
       <c r="U8" t="n">
-        <v>12.6483</v>
+        <v>1290.2167</v>
       </c>
       <c r="V8" t="n">
-        <v>150.6956</v>
+        <v>1227.3681</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.07064</v>
+        <v>980.21</v>
       </c>
       <c r="C9" t="n">
-        <v>20.89748</v>
+        <v>98.065</v>
       </c>
       <c r="D9" t="n">
-        <v>387.43954</v>
+        <v>2701.271</v>
       </c>
       <c r="E9" t="n">
-        <v>184.82173</v>
+        <v>775.196</v>
       </c>
       <c r="F9" t="n">
-        <v>922.11538</v>
+        <v>3931.429</v>
       </c>
       <c r="G9" t="n">
-        <v>336.6013</v>
+        <v>1836.831</v>
       </c>
       <c r="H9" t="n">
-        <v>134.51332</v>
+        <v>2779.693</v>
       </c>
       <c r="I9" t="n">
-        <v>679.28065</v>
+        <v>2220.416</v>
       </c>
       <c r="J9" t="n">
-        <v>179.9836</v>
+        <v>1760.181</v>
       </c>
       <c r="K9" t="n">
-        <v>285.56939</v>
+        <v>3924.897</v>
       </c>
       <c r="L9" t="n">
-        <v>2360.9731</v>
+        <v>16661.479</v>
       </c>
       <c r="M9" t="n">
-        <v>1999.45342</v>
+        <v>12320.257</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.45629</v>
+        <v>5426.822</v>
       </c>
       <c r="O9" t="n">
-        <v>258.78936</v>
+        <v>2646.083</v>
       </c>
       <c r="P9" t="n">
-        <v>2844.08308</v>
+        <v>8693.49</v>
       </c>
       <c r="Q9" t="n">
-        <v>356.53249</v>
+        <v>2548.483</v>
       </c>
       <c r="R9" t="n">
-        <v>139.74392</v>
+        <v>632.061</v>
       </c>
       <c r="S9" t="n">
-        <v>1106.17383</v>
+        <v>3038.055</v>
       </c>
       <c r="T9" t="n">
-        <v>76.42644</v>
+        <v>374.877</v>
       </c>
       <c r="U9" t="n">
-        <v>21.48392</v>
+        <v>2172.039</v>
       </c>
       <c r="V9" t="n">
-        <v>151.22406</v>
+        <v>1488.194</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>230.9386</v>
+        <v>940.895</v>
       </c>
       <c r="C10" t="n">
-        <v>15.6522</v>
+        <v>133.8237</v>
       </c>
       <c r="D10" t="n">
-        <v>521.1481</v>
+        <v>2367.8713</v>
       </c>
       <c r="E10" t="n">
-        <v>270.2484</v>
+        <v>964.9532</v>
       </c>
       <c r="F10" t="n">
-        <v>1216.6369</v>
+        <v>4170.4113</v>
       </c>
       <c r="G10" t="n">
-        <v>484.0653</v>
+        <v>2090.1817</v>
       </c>
       <c r="H10" t="n">
-        <v>237.2263</v>
+        <v>2848.8223</v>
       </c>
       <c r="I10" t="n">
-        <v>937.2818</v>
+        <v>2385.3807</v>
       </c>
       <c r="J10" t="n">
-        <v>371.1318</v>
+        <v>1771.2165</v>
       </c>
       <c r="K10" t="n">
-        <v>652.0984</v>
+        <v>4522.9777</v>
       </c>
       <c r="L10" t="n">
-        <v>3538.95</v>
+        <v>17364.6075</v>
       </c>
       <c r="M10" t="n">
-        <v>2774.7201</v>
+        <v>12267.4026</v>
       </c>
       <c r="N10" t="n">
-        <v>1983.7669</v>
+        <v>5634.4831</v>
       </c>
       <c r="O10" t="n">
-        <v>536.5213</v>
+        <v>2704.9935</v>
       </c>
       <c r="P10" t="n">
-        <v>3509.6599</v>
+        <v>9110.8917</v>
       </c>
       <c r="Q10" t="n">
-        <v>492.8092</v>
+        <v>2127.4378</v>
       </c>
       <c r="R10" t="n">
-        <v>160.9731</v>
+        <v>640.5375</v>
       </c>
       <c r="S10" t="n">
-        <v>1423.6126</v>
+        <v>3134.2378</v>
       </c>
       <c r="T10" t="n">
-        <v>94.16330000000001</v>
+        <v>463.8281</v>
       </c>
       <c r="U10" t="n">
-        <v>56.7544</v>
+        <v>2329.4506</v>
       </c>
       <c r="V10" t="n">
-        <v>213.3905</v>
+        <v>1684.6239</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>289.40906</v>
+        <v>864.5214</v>
       </c>
       <c r="C11" t="n">
-        <v>24.97944</v>
+        <v>100.4604</v>
       </c>
       <c r="D11" t="n">
-        <v>646.80016</v>
+        <v>2116.0585</v>
       </c>
       <c r="E11" t="n">
-        <v>308.07625</v>
+        <v>1052.2645</v>
       </c>
       <c r="F11" t="n">
-        <v>1574.59214</v>
+        <v>3858.1692</v>
       </c>
       <c r="G11" t="n">
-        <v>550.11145</v>
+        <v>2201.9025</v>
       </c>
       <c r="H11" t="n">
-        <v>289.66726</v>
+        <v>3792.8118</v>
       </c>
       <c r="I11" t="n">
-        <v>1241.14695</v>
+        <v>2322.096</v>
       </c>
       <c r="J11" t="n">
-        <v>390.25777</v>
+        <v>1927.1171</v>
       </c>
       <c r="K11" t="n">
-        <v>841.04407</v>
+        <v>4826.3367</v>
       </c>
       <c r="L11" t="n">
-        <v>4562.77943</v>
+        <v>17631.5919</v>
       </c>
       <c r="M11" t="n">
-        <v>3585.48828</v>
+        <v>12134.589</v>
       </c>
       <c r="N11" t="n">
-        <v>2284.61983</v>
+        <v>6074.1305</v>
       </c>
       <c r="O11" t="n">
-        <v>608.31549</v>
+        <v>3075.7598</v>
       </c>
       <c r="P11" t="n">
-        <v>4083.31872</v>
+        <v>9857.1052</v>
       </c>
       <c r="Q11" t="n">
-        <v>611.29076</v>
+        <v>1805.4224</v>
       </c>
       <c r="R11" t="n">
-        <v>191.05804</v>
+        <v>466.5188</v>
       </c>
       <c r="S11" t="n">
-        <v>1681.19428</v>
+        <v>3366.736</v>
       </c>
       <c r="T11" t="n">
-        <v>102.94117</v>
+        <v>425.5706</v>
       </c>
       <c r="U11" t="n">
-        <v>61.01389</v>
+        <v>3079.1119</v>
       </c>
       <c r="V11" t="n">
-        <v>252.1752</v>
+        <v>1591.1908</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>372.5</v>
+        <v>780.3698000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>36.1</v>
+        <v>95.79859999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>884.9</v>
+        <v>2338.629</v>
       </c>
       <c r="E12" t="n">
-        <v>336.8</v>
+        <v>1215.1348</v>
       </c>
       <c r="F12" t="n">
-        <v>1916.9</v>
+        <v>4402.6261</v>
       </c>
       <c r="G12" t="n">
-        <v>635.1</v>
+        <v>2360.2063</v>
       </c>
       <c r="H12" t="n">
-        <v>401.5</v>
+        <v>5404.4149</v>
       </c>
       <c r="I12" t="n">
-        <v>1496</v>
+        <v>2766.0949</v>
       </c>
       <c r="J12" t="n">
-        <v>483.9</v>
+        <v>2212.2332</v>
       </c>
       <c r="K12" t="n">
-        <v>880.2</v>
+        <v>3015.3325</v>
       </c>
       <c r="L12" t="n">
-        <v>5973.7</v>
+        <v>16176.8332</v>
       </c>
       <c r="M12" t="n">
-        <v>4939.4</v>
+        <v>12617.2397</v>
       </c>
       <c r="N12" t="n">
-        <v>2934.8</v>
+        <v>6219.1798</v>
       </c>
       <c r="O12" t="n">
-        <v>693.8</v>
+        <v>3260.2915</v>
       </c>
       <c r="P12" t="n">
-        <v>5269.9</v>
+        <v>10473.5178</v>
       </c>
       <c r="Q12" t="n">
-        <v>832</v>
+        <v>2093.3628</v>
       </c>
       <c r="R12" t="n">
-        <v>258.7</v>
+        <v>549.5683</v>
       </c>
       <c r="S12" t="n">
-        <v>2154.6</v>
+        <v>3778.6117</v>
       </c>
       <c r="T12" t="n">
-        <v>122</v>
+        <v>422.4844</v>
       </c>
       <c r="U12" t="n">
-        <v>111.6</v>
+        <v>4775.6746</v>
       </c>
       <c r="V12" t="n">
-        <v>334.8</v>
+        <v>2095.8263</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.2895</v>
+        <v>830.557</v>
       </c>
       <c r="C13" t="n">
-        <v>53.7401</v>
+        <v>77.6597</v>
       </c>
       <c r="D13" t="n">
-        <v>1139.3466</v>
+        <v>2309.2954</v>
       </c>
       <c r="E13" t="n">
-        <v>373.8644</v>
+        <v>1399.9625</v>
       </c>
       <c r="F13" t="n">
-        <v>2181.1116</v>
+        <v>4469.4628</v>
       </c>
       <c r="G13" t="n">
-        <v>824.722</v>
+        <v>2793.1134</v>
       </c>
       <c r="H13" t="n">
-        <v>540.8394</v>
+        <v>6319.24</v>
       </c>
       <c r="I13" t="n">
-        <v>1643.0019</v>
+        <v>2849.07</v>
       </c>
       <c r="J13" t="n">
-        <v>715.506</v>
+        <v>2052.0355</v>
       </c>
       <c r="K13" t="n">
-        <v>1058.9112</v>
+        <v>3421.7836</v>
       </c>
       <c r="L13" t="n">
-        <v>7744.0172</v>
+        <v>16681.8411</v>
       </c>
       <c r="M13" t="n">
-        <v>6485.0753</v>
+        <v>12639.6082</v>
       </c>
       <c r="N13" t="n">
-        <v>3740.1487</v>
+        <v>6238.8256</v>
       </c>
       <c r="O13" t="n">
-        <v>1016.6076</v>
+        <v>3378.6665</v>
       </c>
       <c r="P13" t="n">
-        <v>6308.6511</v>
+        <v>10157.3771</v>
       </c>
       <c r="Q13" t="n">
-        <v>1056.768</v>
+        <v>2027.0581</v>
       </c>
       <c r="R13" t="n">
-        <v>315.4075</v>
+        <v>518.3056</v>
       </c>
       <c r="S13" t="n">
-        <v>2375.2996</v>
+        <v>3494.2637</v>
       </c>
       <c r="T13" t="n">
-        <v>174.4977</v>
+        <v>488.2182</v>
       </c>
       <c r="U13" t="n">
-        <v>145.8488</v>
+        <v>5843.873</v>
       </c>
       <c r="V13" t="n">
-        <v>541.149</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>552.9709800000001</v>
-      </c>
-      <c r="C14" t="n">
-        <v>75.89894</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1550.17379</v>
-      </c>
-      <c r="E14" t="n">
-        <v>476.27315</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2915.02752</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1105.88955</v>
-      </c>
-      <c r="H14" t="n">
-        <v>907.433</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1906.17994</v>
-      </c>
-      <c r="J14" t="n">
-        <v>877.05978</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1423.54359</v>
-      </c>
-      <c r="L14" t="n">
-        <v>9485.010329999999</v>
-      </c>
-      <c r="M14" t="n">
-        <v>7820.97408</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4364.10666</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1305.85923</v>
-      </c>
-      <c r="P14" t="n">
-        <v>7342.2095</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1422.67301</v>
-      </c>
-      <c r="R14" t="n">
-        <v>375.98012</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2800.23232</v>
-      </c>
-      <c r="T14" t="n">
-        <v>215.72149</v>
-      </c>
-      <c r="U14" t="n">
-        <v>266.6</v>
-      </c>
-      <c r="V14" t="n">
-        <v>816.49656</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>774.47264</v>
-      </c>
-      <c r="C15" t="n">
-        <v>82.07250999999999</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1973.10271</v>
-      </c>
-      <c r="E15" t="n">
-        <v>562.86582</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2638.13948</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1323.99127</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1042.28825</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1433.28269</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1072.80645</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1497.02652</v>
-      </c>
-      <c r="L15" t="n">
-        <v>11113.03136</v>
-      </c>
-      <c r="M15" t="n">
-        <v>9365.739149999999</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4779.74448</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1649.61435</v>
-      </c>
-      <c r="P15" t="n">
-        <v>8148.67996</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1800.41665</v>
-      </c>
-      <c r="R15" t="n">
-        <v>449.45219</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3155.43855</v>
-      </c>
-      <c r="T15" t="n">
-        <v>240.41574</v>
-      </c>
-      <c r="U15" t="n">
-        <v>390.99036</v>
-      </c>
-      <c r="V15" t="n">
-        <v>860.47463</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>858.9044</v>
-      </c>
-      <c r="C16" t="n">
-        <v>64.45165</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2461.83755</v>
-      </c>
-      <c r="E16" t="n">
-        <v>644.27125</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2874.82674</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1552.01794</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1413.04469</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1525.04079</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1144.54413</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1795.44405</v>
-      </c>
-      <c r="L16" t="n">
-        <v>13077.72911</v>
-      </c>
-      <c r="M16" t="n">
-        <v>10998.4761</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5197.79466</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1831.37665</v>
-      </c>
-      <c r="P16" t="n">
-        <v>8645.98343</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2234.68725</v>
-      </c>
-      <c r="R16" t="n">
-        <v>487.56851</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3232.91179</v>
-      </c>
-      <c r="T16" t="n">
-        <v>272.37454</v>
-      </c>
-      <c r="U16" t="n">
-        <v>666.35562</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1320.38054</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>933.38</v>
-      </c>
-      <c r="C17" t="n">
-        <v>72.205</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2691.7078</v>
-      </c>
-      <c r="E17" t="n">
-        <v>713.535</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3039.2582</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1604.3292</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1240.3126</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1569.9906</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1271.6619</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2958.8699</v>
-      </c>
-      <c r="L17" t="n">
-        <v>14503.1351</v>
-      </c>
-      <c r="M17" t="n">
-        <v>11115.2662</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5274.3478</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2016.708</v>
-      </c>
-      <c r="P17" t="n">
-        <v>8640.5641</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2541.6764</v>
-      </c>
-      <c r="R17" t="n">
-        <v>451.2263</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3133.1759</v>
-      </c>
-      <c r="T17" t="n">
-        <v>405.0856</v>
-      </c>
-      <c r="U17" t="n">
-        <v>630.9923</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1207.3678</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1070.7965</v>
-      </c>
-      <c r="C18" t="n">
-        <v>84.36839999999999</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3100.0669</v>
-      </c>
-      <c r="E18" t="n">
-        <v>801.8154</v>
-      </c>
-      <c r="F18" t="n">
-        <v>4273.411</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1735.6038</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1996.0307</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2693.5944</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1536.4509</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3514.1331</v>
-      </c>
-      <c r="L18" t="n">
-        <v>15960.9157</v>
-      </c>
-      <c r="M18" t="n">
-        <v>12047.3492</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5408.4526</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2334.3731</v>
-      </c>
-      <c r="P18" t="n">
-        <v>8802.8212</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2921.8351</v>
-      </c>
-      <c r="R18" t="n">
-        <v>494.232</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3166.9728</v>
-      </c>
-      <c r="T18" t="n">
-        <v>352.8703</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1290.2167</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1227.3681</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>980.21</v>
-      </c>
-      <c r="C19" t="n">
-        <v>98.065</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2701.271</v>
-      </c>
-      <c r="E19" t="n">
-        <v>775.196</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3931.429</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1836.831</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2779.693</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2220.416</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1760.181</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3924.897</v>
-      </c>
-      <c r="L19" t="n">
-        <v>16661.479</v>
-      </c>
-      <c r="M19" t="n">
-        <v>12320.257</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5426.822</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2646.083</v>
-      </c>
-      <c r="P19" t="n">
-        <v>8693.49</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2548.483</v>
-      </c>
-      <c r="R19" t="n">
-        <v>632.061</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3038.055</v>
-      </c>
-      <c r="T19" t="n">
-        <v>374.877</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2172.039</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1488.194</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>940.895</v>
-      </c>
-      <c r="C20" t="n">
-        <v>133.8237</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2367.8713</v>
-      </c>
-      <c r="E20" t="n">
-        <v>964.9532</v>
-      </c>
-      <c r="F20" t="n">
-        <v>4170.4113</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2090.1817</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2848.8223</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2385.3807</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1771.2165</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4522.9777</v>
-      </c>
-      <c r="L20" t="n">
-        <v>17364.6075</v>
-      </c>
-      <c r="M20" t="n">
-        <v>12267.4026</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5634.4831</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2704.9935</v>
-      </c>
-      <c r="P20" t="n">
-        <v>9110.8917</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2127.4378</v>
-      </c>
-      <c r="R20" t="n">
-        <v>640.5375</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3134.2378</v>
-      </c>
-      <c r="T20" t="n">
-        <v>463.8281</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2329.4506</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1684.6239</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>864.5214</v>
-      </c>
-      <c r="C21" t="n">
-        <v>100.4604</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2116.0585</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1052.2645</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3858.1692</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2201.9025</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3792.8118</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2322.096</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1927.1171</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4826.3367</v>
-      </c>
-      <c r="L21" t="n">
-        <v>17631.5919</v>
-      </c>
-      <c r="M21" t="n">
-        <v>12134.589</v>
-      </c>
-      <c r="N21" t="n">
-        <v>6074.1305</v>
-      </c>
-      <c r="O21" t="n">
-        <v>3075.7598</v>
-      </c>
-      <c r="P21" t="n">
-        <v>9857.1052</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1805.4224</v>
-      </c>
-      <c r="R21" t="n">
-        <v>466.5188</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3366.736</v>
-      </c>
-      <c r="T21" t="n">
-        <v>425.5706</v>
-      </c>
-      <c r="U21" t="n">
-        <v>3079.1119</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1591.1908</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>780.3698000000001</v>
-      </c>
-      <c r="C22" t="n">
-        <v>95.79859999999999</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2338.629</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1215.1348</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4402.6261</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2360.2063</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5404.4149</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2766.0949</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2212.2332</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3015.3325</v>
-      </c>
-      <c r="L22" t="n">
-        <v>16176.8332</v>
-      </c>
-      <c r="M22" t="n">
-        <v>12617.2397</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6219.1798</v>
-      </c>
-      <c r="O22" t="n">
-        <v>3260.2915</v>
-      </c>
-      <c r="P22" t="n">
-        <v>10473.5178</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2093.3628</v>
-      </c>
-      <c r="R22" t="n">
-        <v>549.5683</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3778.6117</v>
-      </c>
-      <c r="T22" t="n">
-        <v>422.4844</v>
-      </c>
-      <c r="U22" t="n">
-        <v>4775.6746</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2095.8263</v>
+        <v>2416.2445</v>
       </c>
     </row>
   </sheetData>
